--- a/biology/Botanique/Légumineuse_fourragère/Légumineuse_fourragère.xlsx
+++ b/biology/Botanique/Légumineuse_fourragère/Légumineuse_fourragère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9gumineuse_fourrag%C3%A8re</t>
+          <t>Légumineuse_fourragère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les légumineuses fourragères sont des espèces ou variétés de plantes appartenant à la famille des Fabaceae (Légumineuse) utilisées dans l'alimentation des animaux d'élevage.
-Les légumineuses fourragères sont relativement nombreuses, environ 1500 espèces (sur un total de 19500 espèces rattachées à la famille des légumineuses), mais 60 espèces environ ont été sélectionnées et sont largement cultivées pour la production de fourrages[1].
+Les légumineuses fourragères sont relativement nombreuses, environ 1500 espèces (sur un total de 19500 espèces rattachées à la famille des légumineuses), mais 60 espèces environ ont été sélectionnées et sont largement cultivées pour la production de fourrages.
 Il s'agit généralement de plantes herbacées annuelles ou vivaces, mais on utilise aussi, surtout dans les régions tropicales des espèces ligneuses, arbres ou arbustes.
-Dans les régions tempérées et tempérées chaudes, on exploite principalement des plantes herbacées utilisées pour constituer des prairies temporaires ou permanentes, souvent en association avec d'autres espèces, notamment des graminées[2]. L'herbe est broutée ou fauchée puis séchée ou ensilée, ou déshydratée, et distribuée ensuite aux animaux.
-Les variétés cultivées pour leurs graines ou tourteaux destinés à l'alimentation animale, comme le pois protéagineux, les féverolles, les lupins, l'arachide, le soja ne sont pas considérées en agriculture comme des cultures fourragères bien que leurs résidus de culture (fanes) puissent être utilisés à la manière d'un fourrage[3].
+Dans les régions tempérées et tempérées chaudes, on exploite principalement des plantes herbacées utilisées pour constituer des prairies temporaires ou permanentes, souvent en association avec d'autres espèces, notamment des graminées. L'herbe est broutée ou fauchée puis séchée ou ensilée, ou déshydratée, et distribuée ensuite aux animaux.
+Les variétés cultivées pour leurs graines ou tourteaux destinés à l'alimentation animale, comme le pois protéagineux, les féverolles, les lupins, l'arachide, le soja ne sont pas considérées en agriculture comme des cultures fourragères bien que leurs résidus de culture (fanes) puissent être utilisés à la manière d'un fourrage.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9gumineuse_fourrag%C3%A8re</t>
+          <t>Légumineuse_fourragère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Légumineuses arborescentes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les légumineuses arborescentes comme Faidherbia albida sont utilisées avec succès pour l'alimentation du bétail dans plusieurs régions du monde, en particulier en Afrique, en Asie, en Australie et en Amérique du Sud. Elles constituent cependant une ressource relativement sous-exploitée dans les régions de climat chaud.
-Diverses espèces de légumineuses arborescentes présentent un potentiel d'utilisation. Elles peuvent s'adapter à des climats variés allant des zones semi-arides à des zones humides et sub-humides[4].
-Ce sont des arbres et arbustes, souvent plus pérennes que la plupart des légumineuses herbacées, qui fournissent dans les systèmes sylvopastoraux différents services écosystémiques, notamment, mais pas exclusivement, la fixation biologique de l'azote, la diversification de l'alimentation du bétail, la séquestration du carbone, la fourniture d'ombre pour le bétail, les fleurs utiles aux pollinisateurs, la conservation de la biodiversité et la réduction des émissions de gaz à effet de serre[4].
+Diverses espèces de légumineuses arborescentes présentent un potentiel d'utilisation. Elles peuvent s'adapter à des climats variés allant des zones semi-arides à des zones humides et sub-humides.
+Ce sont des arbres et arbustes, souvent plus pérennes que la plupart des légumineuses herbacées, qui fournissent dans les systèmes sylvopastoraux différents services écosystémiques, notamment, mais pas exclusivement, la fixation biologique de l'azote, la diversification de l'alimentation du bétail, la séquestration du carbone, la fourniture d'ombre pour le bétail, les fleurs utiles aux pollinisateurs, la conservation de la biodiversité et la réduction des émissions de gaz à effet de serre.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9gumineuse_fourrag%C3%A8re</t>
+          <t>Légumineuse_fourragère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Liste de légumineuses fourragères arbustives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon H.M. Shelton (Unasylva, 2000)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon H.M. Shelton (Unasylva, 2000).
 Essences de qualité supérieure
 Albizia lebbeck
 Chamaecytisus palmensis (cytisus proliferus, tagasaste)
@@ -563,14 +579,14 @@
 Sesbania grandiflora
 Sesbania sesban
 Essences de qualité inférieure
-Acacia aneura[6]
+Acacia aneura
 Vachellia nilotica
-Acacia tortilis[6]
+Acacia tortilis
 Albizia chinensis
 Samanea saman
 Calliandra calothyrsus
 Erythrina spp.
-Faidherbia albida[6]
+Faidherbia albida
 Flemingia macrophylla
 Prosopis juliflora
 </t>
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9gumineuse_fourrag%C3%A8re</t>
+          <t>Légumineuse_fourragère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +617,9 @@
           <t>Liste de légumineuses fourragères buissonnantes[7]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cajanus cajan, pois d'Angole
 Crotalaria juncea (graines toxiques)
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9gumineuse_fourrag%C3%A8re</t>
+          <t>Légumineuse_fourragère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,7 +654,9 @@
           <t>Liste des principales légumineuses fourragères herbacées[2],[7]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vicia sativa, vesce cultivée
 Trigonella foenum-graecum, fenugrec
